--- a/biology/Zoologie/Asterocheridae/Asterocheridae.xlsx
+++ b/biology/Zoologie/Asterocheridae/Asterocheridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Asterocheridae sont une famille de crustacés copépodes de l'ordre des Siphonostomatoida.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acontiophorus - Ammatimyzon - Ascomyzon - Asterocheres - Asterocheroides - Asteropontella - Asteropontius - Asteropontoides - Asteropontopsis - Australomyzon - Caecidomyzon - Calverocheres - Cecidomyzon - Chelacheres - Cheramomyzon - Cletopontius - Collocheres - Collocherides - Cyclopicera - Cystomyzon - Dermatomyzon - Discopontius - Doropontius - Dystrogus - Echinocheres - Glyptocheres - Gomumucheres - Hammatimyzon - Hansocheres - Hermacheres - Hetairosyna - Hetairosynopsis - Indomyzon - Inermocheres - Isopodius - Kimcheres - Kolocheres - Kolomyzon - Laperocheres - Leptomyzon - Madacheres - Meandromyzon - Mesocheres - Monocheres - Myzopontius - Neoasterocheres - Obesiella - Oedomyzon - Onychocheres - Ophiurocheres - Orecturus - Parasterocheres - Parasteropontius - Peltomyzon - Phyllocheres - Psilomyzon - Rhynchomyzon - Scottocheres - Selenodiscus - Sestropontius - Setacheres - Sinopontius - Siphonopontius - Solenostoma - Stephopontius - Stockmyzon - Tuphacheres - Tychomyzon - Uperogcos
 </t>
